--- a/cpp_project_win/OpenGLWindow/实验过程/assimp导入渲染/高光纹理覆盖漫反射纹理导致颜色偏白.xlsx
+++ b/cpp_project_win/OpenGLWindow/实验过程/assimp导入渲染/高光纹理覆盖漫反射纹理导致颜色偏白.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F3AB48-2765-4F6C-8E06-B10E7A208F57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957AF50-57C1-435B-A700-CE5EF1BA77D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="自己代码" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>混合模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,13 @@
   <si>
     <t>1.使用镜面反射
 2.颜色基本来自镜面反射纹理，亮度偏亮、偏白、冷色调，与自己的代码显示效果比较接近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GL_SRC_ALPHA</t>
+  </si>
+  <si>
+    <t>结论：在不使用混合模式时，镜面反射纹理会覆盖漫反射纹理，并显示出偏白的效果（如例1、例2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,6 +244,94 @@
         <a:xfrm>
           <a:off x="5753100" y="6743700"/>
           <a:ext cx="4085714" cy="6676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504344</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>104004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56081F5-0CF1-4AA4-BEAD-A62602B29122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="19812000"/>
+          <a:ext cx="3847619" cy="6171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>637752</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>56419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EF33C5-C65F-40C8-B60D-C3D495DFEAF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="13754100"/>
+          <a:ext cx="3380952" cy="5847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -692,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,6 +844,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="70" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -761,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A25B021-6285-4C39-B3AD-B51BB62A4018}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
